--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 6 (36, 10, 39, 14, 18)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(36, 10, 39, 14, 18)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999299082876</v>
+        <v>0.99999994583665</v>
       </c>
       <c r="E2">
-        <v>0.9999999299082876</v>
+        <v>0.99999994583665</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5311740900044959</v>
+        <v>0.05172475832356097</v>
       </c>
       <c r="E3">
-        <v>0.5311740900044959</v>
+        <v>0.05172475832356097</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003730257475993598</v>
+        <v>0.01427608004938534</v>
       </c>
       <c r="E4">
-        <v>0.003730257475993598</v>
+        <v>0.01427608004938534</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>2.728088889379303E-21</v>
+        <v>6.568755928308975E-26</v>
       </c>
       <c r="E5">
-        <v>2.728088889379303E-21</v>
+        <v>6.568755928308975E-26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>6.452226408450598E-34</v>
+        <v>1.088997538693839E-15</v>
       </c>
       <c r="E6">
-        <v>6.452226408450598E-34</v>
+        <v>1.088997538693839E-15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999789633857716</v>
+        <v>0.9999578544772678</v>
       </c>
       <c r="E7">
-        <v>2.103661422836467E-05</v>
+        <v>4.21455227321843E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.9999999999870066</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.299338414639806E-11</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9438469071493085</v>
+        <v>0.914316228675556</v>
       </c>
       <c r="E10">
-        <v>0.05615309285069148</v>
+        <v>0.08568377132444405</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>2.220446049250313E-16</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.729253172874451</v>
+        <v>1.68883740901947</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
